--- a/Error List.xlsx
+++ b/Error List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>LNK2001</t>
   </si>
@@ -63,6 +63,39 @@
   </si>
   <si>
     <t>NS (no solution) Use automatical calibration</t>
+  </si>
+  <si>
+    <t>C3867</t>
+  </si>
+  <si>
+    <t>function call missing argument list; use '&amp;func' to create a pointer to member</t>
+  </si>
+  <si>
+    <t>check if the function name is completely written, i.e. "()" or the arguments in "()"</t>
+  </si>
+  <si>
+    <t>std::map mymap</t>
+  </si>
+  <si>
+    <t>auto itr_begin = mymap.begin(); auto itr_end = mymap.end(); itr_begin++; auto key_value = *itr_begin; auto value = key_value.second;</t>
+  </si>
+  <si>
+    <t>cvCreateImage</t>
+  </si>
+  <si>
+    <t>C code transfer to C++</t>
+  </si>
+  <si>
+    <t>Mat x = Mat (Image.size(), Type);</t>
+  </si>
+  <si>
+    <t>vector&lt;Mat&gt; x</t>
+  </si>
+  <si>
+    <t>cannot directly x[i] = ….</t>
+  </si>
+  <si>
+    <t>use x.push_back(x[i]);</t>
   </si>
 </sst>
 </file>
@@ -421,16 +454,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="102.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -483,6 +517,47 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Error List.xlsx
+++ b/Error List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>LNK2001</t>
   </si>
@@ -80,22 +80,28 @@
     <t>auto itr_begin = mymap.begin(); auto itr_end = mymap.end(); itr_begin++; auto key_value = *itr_begin; auto value = key_value.second;</t>
   </si>
   <si>
-    <t>cvCreateImage</t>
-  </si>
-  <si>
-    <t>C code transfer to C++</t>
-  </si>
-  <si>
     <t>Mat x = Mat (Image.size(), Type);</t>
   </si>
   <si>
-    <t>vector&lt;Mat&gt; x</t>
-  </si>
-  <si>
-    <t>cannot directly x[i] = ….</t>
-  </si>
-  <si>
     <t>use x.push_back(x[i]);</t>
+  </si>
+  <si>
+    <t>LNK2019</t>
+  </si>
+  <si>
+    <t>MSVCRT.lib external symbols</t>
+  </si>
+  <si>
+    <t>project/ properties/ c/c++ / preprocessor / _WINDOWS or _CONSOLE and Linker/ System/ subsystem/ window or console</t>
+  </si>
+  <si>
+    <t>release compile and get lib, exp, def, pch, dll files</t>
+  </si>
+  <si>
+    <t>vector&lt;Mat&gt; x cannot directly x[i] = ….</t>
+  </si>
+  <si>
+    <t>cvCreateImage, C code transfer to C++</t>
   </si>
 </sst>
 </file>
@@ -454,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -529,7 +535,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -537,24 +543,34 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Error List.xlsx
+++ b/Error List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>LNK2001</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>cvCreateImage, C code transfer to C++</t>
+  </si>
+  <si>
+    <t>LNK2038</t>
+  </si>
+  <si>
+    <t>mismatch RuntimeLibrary</t>
+  </si>
+  <si>
+    <t>c/c++ / Code Generation/ Runtime Library: check MT or MD</t>
   </si>
 </sst>
 </file>
@@ -460,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -574,6 +583,17 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Error List.xlsx
+++ b/Error List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>LNK2001</t>
   </si>
@@ -111,6 +111,30 @@
   </si>
   <si>
     <t>c/c++ / Code Generation/ Runtime Library: check MT or MD</t>
+  </si>
+  <si>
+    <t>LNK2005</t>
+  </si>
+  <si>
+    <t>confirm the wrong global variable named with "static"</t>
+  </si>
+  <si>
+    <t>C2668</t>
+  </si>
+  <si>
+    <t>ambiguous call to overloaded function</t>
+  </si>
+  <si>
+    <t>already defined in *.obj</t>
+  </si>
+  <si>
+    <t>don't put a lot of headers and include each other</t>
+  </si>
+  <si>
+    <t>std::out_of_range because .at() length error</t>
+  </si>
+  <si>
+    <t>use try{}catch{} around for loop, check where is the error, use output, call stack, autos</t>
   </si>
 </sst>
 </file>
@@ -469,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -594,6 +618,36 @@
         <v>28</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Error List.xlsx
+++ b/Error List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>LNK2001</t>
   </si>
   <si>
-    <t>check if all lib files already in Linker/Input; add all related .h and .cpp files to project</t>
-  </si>
-  <si>
     <t>C2872</t>
   </si>
   <si>
@@ -135,6 +132,24 @@
   </si>
   <si>
     <t>use try{}catch{} around for loop, check where is the error, use output, call stack, autos</t>
+  </si>
+  <si>
+    <t>unable to read memory</t>
+  </si>
+  <si>
+    <t>check variable initialization and position, some variable can destroy pointer in program</t>
+  </si>
+  <si>
+    <t>check if all lib files already in Linker/Input; add all related .h and .cpp files to project, don't include repeatly same directory</t>
+  </si>
+  <si>
+    <t>C4996</t>
+  </si>
+  <si>
+    <t>Global variable</t>
+  </si>
+  <si>
+    <t>declaration in header file, and definition in source file</t>
   </si>
 </sst>
 </file>
@@ -493,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -509,13 +524,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -523,129 +538,150 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Error List.xlsx
+++ b/Error List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1 Doktor Arbeit\0 Dissertation\A4Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\A4Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>LNK2001</t>
   </si>
@@ -140,9 +140,6 @@
     <t>check variable initialization and position, some variable can destroy pointer in program</t>
   </si>
   <si>
-    <t>check if all lib files already in Linker/Input; add all related .h and .cpp files to project, don't include repeatly same directory</t>
-  </si>
-  <si>
     <t>C4996</t>
   </si>
   <si>
@@ -150,6 +147,24 @@
   </si>
   <si>
     <t>declaration in header file, and definition in source file</t>
+  </si>
+  <si>
+    <t>C1189</t>
+  </si>
+  <si>
+    <t>Xiron Platform Abstraction Layer - Win32</t>
+  </si>
+  <si>
+    <t>XnPlatform.h: 1600 change to 1900</t>
+  </si>
+  <si>
+    <t>This function or variable may be unsafe</t>
+  </si>
+  <si>
+    <t>C/C++ / Preprocessor / Preprocessor Definitions: add _CRT_SECURE_NO_WARNINGS</t>
+  </si>
+  <si>
+    <t>check if all lib files already in Linker/Input; add all related .h and .cpp files to project, don't include repeatly same directory, in win10: add legacy_stdio_definitions.lib</t>
   </si>
 </sst>
 </file>
@@ -191,9 +206,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -508,17 +526,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="164.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="91.7109375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -533,155 +551,182 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Error List.xlsx
+++ b/Error List.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\A4Project\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>LNK2001</t>
   </si>
@@ -113,9 +113,6 @@
     <t>LNK2005</t>
   </si>
   <si>
-    <t>confirm the wrong global variable named with "static"</t>
-  </si>
-  <si>
     <t>C2668</t>
   </si>
   <si>
@@ -165,6 +162,56 @@
   </si>
   <si>
     <t>check if all lib files already in Linker/Input; add all related .h and .cpp files to project, don't include repeatly same directory, in win10: add legacy_stdio_definitions.lib</t>
+  </si>
+  <si>
+    <t>C2371</t>
+  </si>
+  <si>
+    <t>redefinition; different basic types</t>
+  </si>
+  <si>
+    <t>C2733</t>
+  </si>
+  <si>
+    <t>second C linkage of overloaded function not allowed</t>
+  </si>
+  <si>
+    <t>find the confilict header file and check it's defined Macro name and add this #ifndef … #define … #endif to the error header file</t>
+  </si>
+  <si>
+    <t>not totally solved</t>
+  </si>
+  <si>
+    <t>confirm the wrong global variable named with "static" OR in Linker command line input /FORCE:MULTIPLE to enforce the compilation</t>
+  </si>
+  <si>
+    <t>C2011</t>
+  </si>
+  <si>
+    <t>for VS2015 can add #if defined (_MSC_VER) &amp;&amp; (_MSC_VER &gt;= 1900) before struct definition</t>
+  </si>
+  <si>
+    <t>struct' type redefinition</t>
+  </si>
+  <si>
+    <t>C1047</t>
+  </si>
+  <si>
+    <t>The object or library file 'XXX' was created with an older compiler than other objects; rebuild old objects and libraries.</t>
+  </si>
+  <si>
+    <t>disable /GL (=Enable link-time code generation under C/C++/ Optimization / Whole Program Optimization)</t>
+  </si>
+  <si>
+    <t>#error: Macro definition of snprintf conflicts with Standard Library function declaration</t>
+  </si>
+  <si>
+    <t>use                                                                                                                                                                                                                                                                                                                                                         #if defined(_MSC_VER) &amp;&amp; _MSC_VER&lt;1900
+#  define snprintf _snprintf
+#endif                                                                                                                                                                                                                                                                                                                                                           instead of #define snprintf _snprintf</t>
+  </si>
+  <si>
+    <t>C3857</t>
   </si>
 </sst>
 </file>
@@ -206,12 +253,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -526,9 +574,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -559,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,75 +706,135 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>43</v>
+    </row>
+    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Error List.xlsx
+++ b/Error List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>LNK2001</t>
   </si>
@@ -211,7 +211,10 @@
 #endif                                                                                                                                                                                                                                                                                                                                                           instead of #define snprintf _snprintf</t>
   </si>
   <si>
-    <t>C3857</t>
+    <t>opencv: insufficient memory</t>
+  </si>
+  <si>
+    <t>check if some variable in loop be newed but not deleted, or Linker/ system: enable large addresses</t>
   </si>
 </sst>
 </file>
@@ -574,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -832,10 +835,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Error List.xlsx
+++ b/Error List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>LNK2001</t>
   </si>
@@ -215,13 +215,41 @@
   </si>
   <si>
     <t>check if some variable in loop be newed but not deleted, or Linker/ system: enable large addresses</t>
+  </si>
+  <si>
+    <t>depth information not correct</t>
+  </si>
+  <si>
+    <t>depth &gt; 500, depth &lt; 4000, use the original unsigned short data, unit mm</t>
+  </si>
+  <si>
+    <t>function deprecated, i.e. getcwd</t>
+  </si>
+  <si>
+    <t>just add "_" before the function name, like _getcwd</t>
+  </si>
+  <si>
+    <t>C3861</t>
+  </si>
+  <si>
+    <t>function identifier not found</t>
+  </si>
+  <si>
+    <t>put the function definition before calling, because it's not defined in a header file</t>
+  </si>
+  <si>
+    <t>wrong depth value in mapColorFrameToCameraSpace</t>
+  </si>
+  <si>
+    <t>to take point from CameraSpacePoint* m_pCameraCoordinates, use m_pCameraCoordinates[Index], during calculation of Index, all related value should be integer!
+Lemma: all array index should use integer number to avoid float inaccuracy!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +259,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -256,13 +290,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -577,17 +612,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="91.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="109.85546875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
@@ -602,7 +637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -642,7 +677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -653,7 +688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -680,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -691,7 +726,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
@@ -709,7 +744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -731,7 +766,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>33</v>
@@ -740,7 +775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>35</v>
@@ -749,7 +784,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -762,89 +797,126 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Error List.xlsx
+++ b/Error List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>LNK2001</t>
   </si>
@@ -243,6 +243,17 @@
   <si>
     <t>to take point from CameraSpacePoint* m_pCameraCoordinates, use m_pCameraCoordinates[Index], during calculation of Index, all related value should be integer!
 Lemma: all array index should use integer number to avoid float inaccuracy!</t>
+  </si>
+  <si>
+    <t>LNK 1104</t>
+  </si>
+  <si>
+    <t>#error "No Target Architecture"</t>
+  </si>
+  <si>
+    <t>plus include at the head of error source file
+#include &lt;windows.h&gt;
+#include &lt;minwindef.h&gt;</t>
   </si>
 </sst>
 </file>
@@ -612,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -826,97 +837,115 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="31" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Error List.xlsx
+++ b/Error List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>LNK2001</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Openni cannot open Kinect</t>
-  </si>
-  <si>
-    <t>don't use namespace, put name before every function</t>
   </si>
   <si>
     <t>use full route, don't use ../../../</t>
@@ -245,15 +242,27 @@
 Lemma: all array index should use integer number to avoid float inaccuracy!</t>
   </si>
   <si>
-    <t>LNK 1104</t>
-  </si>
-  <si>
     <t>#error "No Target Architecture"</t>
   </si>
   <si>
     <t>plus include at the head of error source file
 #include &lt;windows.h&gt;
 #include &lt;minwindef.h&gt;</t>
+  </si>
+  <si>
+    <t>C2059</t>
+  </si>
+  <si>
+    <t>syntax error: 'constant'</t>
+  </si>
+  <si>
+    <t>don't use system default / remained syntax in enum, typedef or class definition etc., such as "ERROR"</t>
+  </si>
+  <si>
+    <t>1. don't use namespace, put name before every function</t>
+  </si>
+  <si>
+    <t>2. aware of include header files, don't repeatly include</t>
   </si>
 </sst>
 </file>
@@ -623,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -639,13 +648,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
@@ -656,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -667,54 +676,52 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,229 +730,697 @@
         <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="2" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" ht="39" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="4" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="39" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
